--- a/outputs-GTDB-r202/g__Bacillus.xlsx
+++ b/outputs-GTDB-r202/g__Bacillus.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>s__Bacillus licheniformis</t>
+          <t>s__Bacillus licheniformis(reject)</t>
         </is>
       </c>
     </row>
